--- a/backend/fms_core/tests/service-templates/Experiment_run_MGI_v4_1_0.xlsx
+++ b/backend/fms_core/tests/service-templates/Experiment_run_MGI_v4_1_0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>UFG</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B10" authorId="0">
@@ -186,255 +186,258 @@
     <t xml:space="preserve">ER_Container_BC_01</t>
   </si>
   <si>
+    <t xml:space="preserve">E06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step complete - Move to next step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x1 Coords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x12 Coords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16x24 Coords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequencing Kit Used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnbseq-T7 flowcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-Sequencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02-Frida Kahlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-G400 PE150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03-Jennifer Doudna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowcell position 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-G400 PE200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowcell position 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-T7 PE100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowcell position 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNBSEQ-T7 PE150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowcell position 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B17</t>
+  </si>
+  <si>
     <t xml:space="preserve">D06</t>
   </si>
   <si>
-    <t xml:space="preserve">A01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step complete - Move to next step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container Kind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x1 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x12 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16x24 Coords</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequencing Kit Used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dnbseq-T7 flowcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On-Sequencer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-Frida Kahlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Side B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNBSEQ-G400 PE150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample failed - Remove sample from study workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-Jennifer Doudna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowcell position 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNBSEQ-G400 PE200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowcell position 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNBSEQ-T7 PE100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">App-D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowcell position 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNBSEQ-T7 PE150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flowcell position 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B17</t>
-  </si>
-  <si>
     <t xml:space="preserve">B18</t>
   </si>
   <si>
@@ -487,9 +490,6 @@
   </si>
   <si>
     <t xml:space="preserve">E05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E06</t>
   </si>
   <si>
     <t xml:space="preserve">E07</t>
@@ -1693,11 +1693,11 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.43"/>
@@ -9969,11 +9969,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.86"/>
@@ -17267,7 +17267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -17808,77 +17808,77 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>107</v>
@@ -17888,7 +17888,7 @@
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>108</v>
@@ -17898,7 +17898,7 @@
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>109</v>
@@ -17908,7 +17908,7 @@
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>110</v>
@@ -17918,7 +17918,7 @@
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>111</v>
@@ -17928,7 +17928,7 @@
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>112</v>
@@ -18171,7 +18171,7 @@
         <v>183</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18181,7 +18181,7 @@
         <v>184</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18191,7 +18191,7 @@
         <v>185</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18201,7 +18201,7 @@
         <v>186</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18211,7 +18211,7 @@
         <v>187</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18221,7 +18221,7 @@
         <v>188</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18231,7 +18231,7 @@
         <v>189</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18359,7 +18359,7 @@
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18367,7 +18367,7 @@
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18375,7 +18375,7 @@
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18383,7 +18383,7 @@
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18391,7 +18391,7 @@
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18399,7 +18399,7 @@
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
